--- a/Excel_bootcamp/Functions Datasets start files/Flash Fill Names.xlsx
+++ b/Excel_bootcamp/Functions Datasets start files/Flash Fill Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odaik\Desktop\Excel workshop\Modules\My bootcamp\Moduels\Module 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Functions Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3077260C-F956-4AF8-B9A2-EC5D3F9C87F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0C127-6842-CD48-A1C8-71757FADAE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names 1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>Gracie</t>
   </si>
@@ -323,6 +323,237 @@
   </si>
   <si>
     <t>first two letters of the last name, first two digits in the ID, the last two letters of the first name capitalized, the last four digits of the ID</t>
+  </si>
+  <si>
+    <t>Bayer,Gracie</t>
+  </si>
+  <si>
+    <t>Abelt,Sophia</t>
+  </si>
+  <si>
+    <t>Alammar,Hassan</t>
+  </si>
+  <si>
+    <t>Fregoso</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Godfroy</t>
+  </si>
+  <si>
+    <t>Gorman</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Gryczka</t>
+  </si>
+  <si>
+    <t>Guijosa</t>
+  </si>
+  <si>
+    <t>Haasl</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Herrington</t>
+  </si>
+  <si>
+    <t>Hyland</t>
+  </si>
+  <si>
+    <t>Imbert</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Jaeger</t>
+  </si>
+  <si>
+    <t>Jahn</t>
+  </si>
+  <si>
+    <t>Kasongo</t>
+  </si>
+  <si>
+    <t>Kaur</t>
+  </si>
+  <si>
+    <t>Klug</t>
+  </si>
+  <si>
+    <t>Carley</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Denim</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Qining</t>
+  </si>
+  <si>
+    <t>Skye</t>
+  </si>
+  <si>
+    <t>Alondra</t>
+  </si>
+  <si>
+    <t>Elisandra</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Maximilian</t>
+  </si>
+  <si>
+    <t>JohnMa314</t>
+  </si>
+  <si>
+    <t>PaytonMa571</t>
+  </si>
+  <si>
+    <t>WilliamMa524</t>
+  </si>
+  <si>
+    <t>JosephMa378</t>
+  </si>
+  <si>
+    <t>NateMe244</t>
+  </si>
+  <si>
+    <t>KylerMe819</t>
+  </si>
+  <si>
+    <t>StephanieMi246</t>
+  </si>
+  <si>
+    <t>BaeMo962</t>
+  </si>
+  <si>
+    <t>KiMo521</t>
+  </si>
+  <si>
+    <t>MikaylaMo130</t>
+  </si>
+  <si>
+    <t>Ma28HN7314</t>
+  </si>
+  <si>
+    <t>Ma85ON8571</t>
+  </si>
+  <si>
+    <t>Ma69AM8524</t>
+  </si>
+  <si>
+    <t>Ma88PH4378</t>
+  </si>
+  <si>
+    <t>Me11TE6244</t>
+  </si>
+  <si>
+    <t>Me64ER9819</t>
+  </si>
+  <si>
+    <t>Mi68IE9246</t>
+  </si>
+  <si>
+    <t>Mo65AE7962</t>
+  </si>
+  <si>
+    <t>Mo61KI6521</t>
+  </si>
+  <si>
+    <t>Mo35LA0130</t>
+  </si>
+  <si>
+    <t>Aldashan,Jase</t>
+  </si>
+  <si>
+    <t>Alvarado,Victor</t>
+  </si>
+  <si>
+    <t>Anderson,Quinlin</t>
+  </si>
+  <si>
+    <t>Anuta,Beau</t>
+  </si>
+  <si>
+    <t>Apresyan,Mya</t>
+  </si>
+  <si>
+    <t>Atwood,Jamiah</t>
+  </si>
+  <si>
+    <t>Ayudan,Lamontae</t>
+  </si>
+  <si>
+    <t>Bayer,Kara</t>
+  </si>
+  <si>
+    <t>Berens,Terrill</t>
+  </si>
+  <si>
+    <t>Bergman,Evan</t>
+  </si>
+  <si>
+    <t>Brandenburg,Antonio</t>
+  </si>
+  <si>
+    <t>Brey,Jackson</t>
+  </si>
+  <si>
+    <t>Brin,Monica</t>
+  </si>
+  <si>
+    <t>Bruce,Gavin</t>
+  </si>
+  <si>
+    <t>Buchta,Alexandra</t>
+  </si>
+  <si>
+    <t>Buss,Fernando</t>
   </si>
 </sst>
 </file>
@@ -857,10 +1088,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1219,18 +1450,18 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -1244,7 +1475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,9 +1485,11 @@
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1266,9 +1499,11 @@
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,9 +1513,11 @@
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1290,9 +1527,11 @@
       <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1302,9 +1541,11 @@
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1314,9 +1555,11 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1326,9 +1569,11 @@
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1338,9 +1583,11 @@
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,9 +1597,11 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,9 +1611,11 @@
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1374,9 +1625,11 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,9 +1639,11 @@
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1398,9 +1653,11 @@
       <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,9 +1667,11 @@
       <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,9 +1681,11 @@
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1434,9 +1695,11 @@
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,9 +1709,11 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1458,9 +1723,11 @@
       <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1737,9 @@
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,17 +1751,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C21"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -1503,145 +1772,225 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1653,18 +2002,18 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -1678,107 +2027,147 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="1">
         <v>2867314</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="1">
         <v>8558571</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="1">
         <v>6938524</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>8854378</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="1">
         <v>1146244</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>6469819</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>6899246</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>6577962</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>6156521</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>3550130</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1786,7 +2175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>

--- a/Excel_bootcamp/Functions Datasets start files/Flash Fill Names.xlsx
+++ b/Excel_bootcamp/Functions Datasets start files/Flash Fill Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Functions Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0C127-6842-CD48-A1C8-71757FADAE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10049B-FFFB-D345-94A4-7676DBD910D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
